--- a/admin/ACTIVE_ACCOUNT_BALANCE_REPORT.xlsx
+++ b/admin/ACTIVE_ACCOUNT_BALANCE_REPORT.xlsx
@@ -15,45 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>ACTIVE ACCOUNT BALANCE REPORT</t>
   </si>
   <si>
-    <t>Range 1</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Service Code</t>
-  </si>
-  <si>
-    <t>Enroll</t>
-  </si>
-  <si>
-    <t>Used</t>
-  </si>
-  <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
-    <t>Remain</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>PRI1</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>PRT</t>
+    <t>Date 08-06-2025</t>
   </si>
 </sst>
 </file>
@@ -439,10 +406,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,126 +452,44 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5">
-        <v>60</v>
-      </c>
-      <c r="D4" s="5">
-        <v>41</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5">
-        <v>7229.25</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>185</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>180</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/ACTIVE_ACCOUNT_BALANCE_REPORT.xlsx
+++ b/admin/ACTIVE_ACCOUNT_BALANCE_REPORT.xlsx
@@ -15,12 +15,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>ACTIVE ACCOUNT BALANCE REPORT</t>
   </si>
   <si>
-    <t>Date 08-06-2025</t>
+    <t>Range 1 Month</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Service Code</t>
+  </si>
+  <si>
+    <t>Enroll</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Remain</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Gary Bostrup</t>
+  </si>
+  <si>
+    <t>PRI2</t>
+  </si>
+  <si>
+    <t>$2,000.00</t>
+  </si>
+  <si>
+    <t>Yolande Brizendine</t>
+  </si>
+  <si>
+    <t>PRI1</t>
+  </si>
+  <si>
+    <t>$1,738.80</t>
+  </si>
+  <si>
+    <t>Ted Chun</t>
+  </si>
+  <si>
+    <t>$14,742.00</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>$1,390.00</t>
+  </si>
+  <si>
+    <t>Jack Conrad</t>
+  </si>
+  <si>
+    <t>$4,082.40</t>
+  </si>
+  <si>
+    <t>Roger Dewames</t>
+  </si>
+  <si>
+    <t>$4,762.80</t>
+  </si>
+  <si>
+    <t>Carol Henry</t>
+  </si>
+  <si>
+    <t>$4,819.50</t>
+  </si>
+  <si>
+    <t>GRP1</t>
+  </si>
+  <si>
+    <t>$1,000.00</t>
+  </si>
+  <si>
+    <t>Michelle Kreke</t>
+  </si>
+  <si>
+    <t>$185.00</t>
+  </si>
+  <si>
+    <t>Laura Monsalvo</t>
+  </si>
+  <si>
+    <t>Sharon Matsumoto</t>
+  </si>
+  <si>
+    <t>$4,895.10</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>$180.00</t>
+  </si>
+  <si>
+    <t>Helen Tofangchi</t>
+  </si>
+  <si>
+    <t>$2,872.80</t>
+  </si>
+  <si>
+    <t>Anna Woodward</t>
+  </si>
+  <si>
+    <t>$7,229.25</t>
   </si>
 </sst>
 </file>
@@ -88,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -98,14 +212,11 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,10 +517,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,7 +551,7 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -452,44 +563,794 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>126</v>
+      </c>
+      <c r="D9" s="2">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/ACTIVE_ACCOUNT_BALANCE_REPORT.xlsx
+++ b/admin/ACTIVE_ACCOUNT_BALANCE_REPORT.xlsx
@@ -15,129 +15,288 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>CASH REPORT</t>
   </si>
   <si>
-    <t>Amto.Robert (Arthur Murray Thousand Oaks, Arthur Murray Woodland Hills)</t>
-  </si>
-  <si>
-    <t>09/01/2025 - 09/30/2025</t>
+    <t>Amto.Robert (Arthur Murray Thousand Oaks, Asansol, Medinipur, Migration)</t>
+  </si>
+  <si>
+    <t>08/01/2025 - 09/29/2025</t>
+  </si>
+  <si>
+    <t>Nicholas Kavoklis</t>
+  </si>
+  <si>
+    <t>Receipt#</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ENR ID</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>Enrollment Type</t>
+  </si>
+  <si>
+    <t>Units/Total Cost</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Comment/Remark</t>
+  </si>
+  <si>
+    <t>RC-14198</t>
+  </si>
+  <si>
+    <t>09-24-2025</t>
+  </si>
+  <si>
+    <t>$2500.00</t>
+  </si>
+  <si>
+    <t>Aar Bagnall</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 11</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>0/$2500.00</t>
+  </si>
+  <si>
+    <t>$2,500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Refund) Cash</t>
+  </si>
+  <si>
+    <t>RC-14197</t>
+  </si>
+  <si>
+    <t>09-02-2025</t>
+  </si>
+  <si>
+    <t>Time Exchange</t>
   </si>
   <si>
     <t>Coach Coach</t>
   </si>
   <si>
-    <t>Receipt#</t>
-  </si>
-  <si>
-    <t>Payment Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ENR ID</t>
-  </si>
-  <si>
-    <t>Enrollment</t>
-  </si>
-  <si>
-    <t>Enrollment Type</t>
-  </si>
-  <si>
-    <t>Units/Total Cost</t>
-  </si>
-  <si>
-    <t>Portion</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Comment/Remark</t>
-  </si>
-  <si>
-    <t>PMT-14631</t>
-  </si>
-  <si>
-    <t>09-26-2025</t>
-  </si>
-  <si>
-    <t>$400.00</t>
-  </si>
-  <si>
-    <t>Aar Bagnall</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>ENR - 4</t>
-  </si>
-  <si>
-    <t>Testing Report</t>
+    <t>08-27-2025</t>
+  </si>
+  <si>
+    <t>$180.00</t>
+  </si>
+  <si>
+    <t>Chiara Grieco</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Miscellanious service</t>
+  </si>
+  <si>
+    <t>0/$180.00</t>
+  </si>
+  <si>
+    <t>RC-14195</t>
+  </si>
+  <si>
+    <t>08-18-2025</t>
+  </si>
+  <si>
+    <t>$945.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 7</t>
+  </si>
+  <si>
+    <t>0/$945.00</t>
+  </si>
+  <si>
+    <t>RC-14196</t>
+  </si>
+  <si>
+    <t>$1,125.00</t>
+  </si>
+  <si>
+    <t>Roumyadeb Karmakar</t>
+  </si>
+  <si>
+    <t>RC-14201</t>
+  </si>
+  <si>
+    <t>$250.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 10</t>
+  </si>
+  <si>
+    <t>0/$250.00</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 12</t>
+  </si>
+  <si>
+    <t>0/$0.00</t>
+  </si>
+  <si>
+    <t>0/$5275.00</t>
+  </si>
+  <si>
+    <t>RC-14193</t>
+  </si>
+  <si>
+    <t>08-15-2025</t>
+  </si>
+  <si>
+    <t>$1,250.00</t>
+  </si>
+  <si>
+    <t>Caleb Castillo</t>
+  </si>
+  <si>
+    <t>RC-14199</t>
+  </si>
+  <si>
+    <t>$1001.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 13</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>0/$59.00</t>
+  </si>
+  <si>
+    <t>$1,001.00</t>
+  </si>
+  <si>
+    <t>RC-14200</t>
+  </si>
+  <si>
+    <t>$5664.80</t>
+  </si>
+  <si>
+    <t>$5,664.80</t>
+  </si>
+  <si>
+    <t>$3342453.50</t>
+  </si>
+  <si>
+    <t>$3,342,453.50</t>
+  </si>
+  <si>
+    <t>0/$29325.00</t>
+  </si>
+  <si>
+    <t>RC-14194</t>
+  </si>
+  <si>
+    <t>$179.55</t>
+  </si>
+  <si>
+    <t>Bronze 2x/Mo Extension</t>
   </si>
   <si>
     <t>Extension</t>
   </si>
   <si>
-    <t>4/$2000.00</t>
-  </si>
-  <si>
-    <t>$200.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>PMT-14632</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>PMT-14633</t>
-  </si>
-  <si>
-    <t>$100.00</t>
-  </si>
-  <si>
-    <t>(Refund) Cash</t>
-  </si>
-  <si>
-    <t>AMWH-27764</t>
-  </si>
-  <si>
-    <t>09-24-2025</t>
-  </si>
-  <si>
-    <t>$300.00</t>
-  </si>
-  <si>
-    <t>Regeene Zara</t>
-  </si>
-  <si>
-    <t>Complimentary Enrollment</t>
-  </si>
-  <si>
-    <t>Pre original</t>
-  </si>
-  <si>
-    <t>24/$3600.00</t>
-  </si>
-  <si>
-    <t>$165.00</t>
-  </si>
-  <si>
-    <t>$565.00</t>
+    <t>24/$4309.20</t>
+  </si>
+  <si>
+    <t>RC-14190</t>
+  </si>
+  <si>
+    <t>08-01-2025</t>
+  </si>
+  <si>
+    <t>$359.10</t>
+  </si>
+  <si>
+    <t>RC-14187</t>
+  </si>
+  <si>
+    <t>$160.65</t>
+  </si>
+  <si>
+    <t>Carol Henry</t>
+  </si>
+  <si>
+    <t>Bronze 5x/Mo Extension</t>
+  </si>
+  <si>
+    <t>60/$9639.00</t>
+  </si>
+  <si>
+    <t>RC-14189</t>
+  </si>
+  <si>
+    <t>$16,512.00</t>
+  </si>
+  <si>
+    <t>Edwin Cabrera</t>
+  </si>
+  <si>
+    <t>RC-14192</t>
+  </si>
+  <si>
+    <t>$275.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 9</t>
+  </si>
+  <si>
+    <t>0/$275.00</t>
+  </si>
+  <si>
+    <t>RC-14188</t>
+  </si>
+  <si>
+    <t>Emily Hare</t>
+  </si>
+  <si>
+    <t>2x/Mo Renewal</t>
+  </si>
+  <si>
+    <t>$454.55</t>
   </si>
 </sst>
 </file>
@@ -559,10 +718,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +820,7 @@
       <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -697,65 +856,65 @@
         <v>25</v>
       </c>
       <c r="K7" s="2">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="2">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="11">
+        <v>100</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>21</v>
@@ -770,103 +929,1505 @@
         <v>24</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="11">
+        <v>100</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2">
+        <v>100</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="2">
+        <v>100</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="2">
+        <v>100</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="11">
+        <v>100</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="2">
+        <v>100</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="11">
+        <v>100</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="7">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="2">
+        <v>100</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="7">
+        <v>10</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="2">
+        <v>100</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="2">
+        <v>100</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="11">
+        <v>100</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="2">
+        <v>100</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="2">
+        <v>100</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="2">
+        <v>100</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="11">
+        <v>100</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="2">
+        <v>100</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="2">
+        <v>100</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" s="2">
+        <v>100</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="11">
+        <v>100</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="C48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="K48" s="2">
+        <v>100</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="7">
+        <v>11327</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="2">
+        <v>100</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="9">
+        <v>11327</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="11">
+        <v>100</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="7">
+        <v>11327</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="2">
+        <v>100</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="7">
+        <v>11454</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52" s="2">
+        <v>100</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="7">
+        <v>11454</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" s="2">
+        <v>100</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="11">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="2">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="E58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58" s="2">
+        <v>100</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="7">
+        <v>11468</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="2">
+        <v>100</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -875,6 +2436,11 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A56:K56"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
